--- a/biology/Zoologie/Aphanus_contractus/Aphanus_contractus.xlsx
+++ b/biology/Zoologie/Aphanus_contractus/Aphanus_contractus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphanus contractus est une espèce fossile d'insectes de l'ordre des Hémiptères, du sous-ordre des Hétéroptères (punaises) de la famille des Rhyparochromidae, de la sous-famille des Rhyparochrominae, de la tribu des Gonianotini, dans le genre Aphanus.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aphanus contractus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, cette espèce a trois collections de fossiles dont deux en France et une en Allemagne[2].
-Cet holotype R 929, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
-Il a aussi des cotypes R 951, R 1004 et R 948 de la même collection Mieg du musée de Bâle.
-Étymologie
-L'épithète spécifique contractus signifie en latin « contracté ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aphanus contractus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -545,18 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte au corps allongé, à reflet brun brillant, orné de tubercules fins et serrés sur tête, thorax et élytres. Corps fortement bombé. Tête triangulaire, yeux latéraux, arrondis ; antennes avec article basal court, dépassant à peine la tête ; pronutum légèrement contracté à l'avant ; côté antérieur échancré ; coins antérieurs arrondis ; côté arrière droit ; bords latéraux légèrement convexes ; on voit par transparence l'intersection des pattes I ; scutellum triangulaire à bords droits. Thorax légèrement contracté à l'arrière. Abdomen ovale ; bord postérieur du 3° segment réfléchi vers l'avant. Élytres jaune pâle ; corie ornée de tubercules noirs. »[1].
-Dimensions
-La longueur totale du corps est de 6,5 mm[1].
-Affinités
-Cette espèce présente les caractères du genre Aphanus et se place au voisinage de Aphanus lineosus DIST. de Ceylan[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, cette espèce a trois collections de fossiles dont deux en France et une en Allemagne.
+Cet holotype R 929, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
+Il a aussi des cotypes R 951, R 1004 et R 948 de la même collection Mieg du musée de Bâle.
 </t>
         </is>
       </c>
@@ -582,12 +592,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique contractus signifie en latin « contracté ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte au corps allongé, à reflet brun brillant, orné de tubercules fins et serrés sur tête, thorax et élytres. Corps fortement bombé. Tête triangulaire, yeux latéraux, arrondis ; antennes avec article basal court, dépassant à peine la tête ; pronutum légèrement contracté à l'avant ; côté antérieur échancré ; coins antérieurs arrondis ; côté arrière droit ; bords latéraux légèrement convexes ; on voit par transparence l'intersection des pattes I ; scutellum triangulaire à bords droits. Thorax légèrement contracté à l'arrière. Abdomen ovale ; bord postérieur du 3° segment réfléchi vers l'avant. Élytres jaune pâle ; corie ornée de tubercules noirs. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 6,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce présente les caractères du genre Aphanus et se place au voisinage de Aphanus lineosus DIST. de Ceylan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanus_contractus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le g. Aphanus vit dans les régions paléarctique, éthiopienne et orientale »[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le g. Aphanus vit dans les régions paléarctique, éthiopienne et orientale ».
 </t>
         </is>
       </c>
